--- a/temp_database.xlsx
+++ b/temp_database.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N1" sqref="A1:N1"/>
@@ -598,151 +598,103 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GHI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Mary</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ASC</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>No peanut</t>
+          <t>no dairy</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>S3565G, S7599H</t>
+          <t>S3554L</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Deposted</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>N.A.</t>
-        </is>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>45334</v>
-      </c>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>SINGAPORE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GHI</t>
+          <t>ABC ENTERPRISE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mary</t>
+          <t>JOHN DOE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>EXECUTIVE</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>no dairy</t>
+          <t>NIL</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>987654321</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>123 ENTERPRISE RD</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>S3554L</t>
-        </is>
+          <t>SJE 3845 H</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>44692</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" s="2" t="n"/>
-    </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>SINGAPORE</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ABC ENTERPRISE</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>JOHN DOE</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>EXECUTIVE</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NIL</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>987654321</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>123 ENTERPRISE RD</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>SJE 3845 H</t>
-        </is>
-      </c>
-      <c r="J5" s="3" t="n">
-        <v>44692</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>N.A.</t>
         </is>
